--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2688.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2688.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162429543554412</v>
+        <v>0.9910886883735657</v>
       </c>
       <c r="B1">
-        <v>2.419790692530611</v>
+        <v>1.911357402801514</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.38608455657959</v>
       </c>
       <c r="D1">
-        <v>2.332868916979269</v>
+        <v>2.288283348083496</v>
       </c>
       <c r="E1">
-        <v>1.215090766874271</v>
+        <v>1.302746415138245</v>
       </c>
     </row>
   </sheetData>
